--- a/medicine/Psychotrope/Tormore/Tormore.xlsx
+++ b/medicine/Psychotrope/Tormore/Tormore.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Tormore est une distillerie de whisky fondée en 1958 dans le Speyside. La construction de la distillerie a commencé en 1958 et s’est terminée en 1960.
@@ -512,9 +524,11 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Tormore est une des distilleries écossaises les plus récentes. En 1958, c’est la première distillerie à être construite depuis le début du XXe siècle[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Tormore est une des distilleries écossaises les plus récentes. En 1958, c’est la première distillerie à être construite depuis le début du XXe siècle.
 En 1972, la distillerie a été agrandie et passe de 4 à 8 alambics.
 </t>
         </is>
@@ -544,14 +558,51 @@
           <t>La production</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Tormore embouteille très peu sa production en single malt la quasi-totalité du whisky produit est destinée à la fabrication des blends, essentiellement Long John.
-Versions officielles
-Tormore 10 ans
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Tormore embouteille très peu sa production en single malt la quasi-totalité du whisky produit est destinée à la fabrication des blends, essentiellement Long John.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Tormore</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Tormore</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>La production</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Versions officielles</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Tormore 10 ans
 Tormore 12 ans 40 %, lancé en 2004.
 D'autres versions officielles ont existé comme un 5 ans et un 15 ans d’âge.
-Embouteillages indépendants</t>
+</t>
         </is>
       </c>
     </row>
